--- a/submaps.xlsx
+++ b/submaps.xlsx
@@ -240,19 +240,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addCopper(10000),addEquipment(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addCopper(100),addEquipment(1)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>difficulty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCopper,10000;addEquipment,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>addCopper,100;addEquipment,1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -631,7 +631,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -651,7 +651,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
@@ -660,7 +660,7 @@
         <v>7</v>
       </c>
       <c r="F1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -677,7 +677,7 @@
         <v>5</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F2">
         <v>1000</v>
@@ -697,7 +697,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>1001</v>

--- a/submaps.xlsx
+++ b/submaps.xlsx
@@ -152,51 +152,6 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
-          <t>全部通关后奖励</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>王朋</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
           <t>奖励称号，只能靠打通更高难度来升级</t>
         </r>
       </text>
@@ -206,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -236,23 +191,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>reward</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>title</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>difficulty</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>addCopper,10000;addEquipment,1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>addCopper,100;addEquipment,1</t>
+    <t>trinket</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -628,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -639,11 +582,10 @@
     <col min="2" max="2" width="9.875" customWidth="1"/>
     <col min="3" max="3" width="12.75" customWidth="1"/>
     <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="40.25" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="5" max="5" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -651,19 +593,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,14 +615,11 @@
       <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2">
+      <c r="E2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>2</v>
       </c>
@@ -696,10 +632,7 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3">
+      <c r="E3">
         <v>1001</v>
       </c>
     </row>

--- a/submaps.xlsx
+++ b/submaps.xlsx
@@ -111,7 +111,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0">
+    <comment ref="F1" authorId="0">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,6 +196,10 @@
   </si>
   <si>
     <t>trinket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>needmap</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -571,21 +575,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="9.875" customWidth="1"/>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="35.375" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
+    <col min="3" max="4" width="12.75" customWidth="1"/>
+    <col min="5" max="5" width="35.375" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,13 +600,16 @@
         <v>7</v>
       </c>
       <c r="D1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>
@@ -612,14 +619,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3">
         <v>2</v>
       </c>
@@ -629,10 +639,13 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>1001</v>
       </c>
     </row>
